--- a/generated_tables/io_d_sub_sd_stamped_formed_smt_patterns.xlsx
+++ b/generated_tables/io_d_sub_sd_stamped_formed_smt_patterns.xlsx
@@ -19,49 +19,49 @@
     <t>PART NUMBER</t>
   </si>
   <si>
-    <t>V1_GROUNDING_TAB</t>
+    <t>V1 GROUNDING TAB</t>
   </si>
   <si>
-    <t>V2_GROUNDING_TAB</t>
+    <t>V2 GROUNDING TAB</t>
   </si>
   <si>
-    <t>ZEFO_BOARDLOCKS</t>
+    <t>ZEFO BOARDLOCKS</t>
   </si>
   <si>
-    <t>LIF_BOARDLOCKS</t>
+    <t>LIF BOARDLOCKS</t>
   </si>
   <si>
-    <t>THREADED_REAR</t>
+    <t>THREADED REAR</t>
   </si>
   <si>
-    <t>INSTALLED_FRONT_FEMA</t>
+    <t>INSTALLED FRONT FEMALE</t>
   </si>
   <si>
-    <t>FIXED_FRONT_FEMALE</t>
+    <t>FIXED FRONT FEMALE</t>
   </si>
   <si>
-    <t>SERIES_IDENTIFIER</t>
+    <t>SERIES IDENTIFIER</t>
   </si>
   <si>
-    <t>SERIES_NUMBER</t>
+    <t>SERIES NUMBER</t>
   </si>
   <si>
-    <t>SERIES_TYPE</t>
+    <t>SERIES TYPE</t>
   </si>
   <si>
     <t>CONFIGURATION</t>
   </si>
   <si>
-    <t>BOARDLOCKS_/_GROUNDI</t>
+    <t>BOARDLOCKS / GROUNDING TAB</t>
   </si>
   <si>
     <t>PACKAGING</t>
   </si>
   <si>
-    <t>CONTACT_PLATING</t>
+    <t>CONTACT PLATING</t>
   </si>
   <si>
-    <t>MOUNTING_OPTIONS</t>
+    <t>MOUNTING OPTIONS</t>
   </si>
   <si>
     <t>V1, V2</t>
